--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$T$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -117,6 +117,9 @@
     <t>&lt;%=rs1.invoice_masterbi_receipt_amount%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.bc%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.user_name%&gt;</t>
   </si>
   <si>
@@ -149,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -195,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -217,6 +228,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -224,6 +251,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -232,11 +296,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,90 +337,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,6 +357,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,13 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,54 +399,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,96 +532,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -581,26 +593,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,37 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,142 +665,142 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,7 +829,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -844,7 +847,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,13 +877,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,17 +1269,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.15384615384615" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.2596153846154" style="1" customWidth="1"/>
@@ -1382,69 +1385,46 @@
       <c r="D3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="24"/>
       <c r="O3" s="25"/>
       <c r="P3" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
       <c r="T3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W3" s="27"/>
     </row>
-    <row r="4" customHeight="1" spans="1:23">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="8"/>
-      <c r="W4" s="27"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:T4"/>
+  <autoFilter ref="A2:T3"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>
   <headerFooter/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AA$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">Receipt No. </t>
   </si>
   <si>
+    <t>Currency</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -56,10 +59,10 @@
     <t>TASSAC</t>
   </si>
   <si>
-    <t>FREIGHT</t>
-  </si>
-  <si>
-    <t>DEPOSIT</t>
+    <t>OCEAN FREIGHT</t>
+  </si>
+  <si>
+    <t>CONTAINER DEPOSIT</t>
   </si>
   <si>
     <t>DEMURRAGE</t>
@@ -71,41 +74,40 @@
     <t>Returned</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>Lift on/off</t>
+    <t>LIFT ON LIFT OFF</t>
+  </si>
+  <si>
+    <t>BL PRINTING</t>
+  </si>
+  <si>
+    <t>AMF</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>CONTAINER TRANSFER</t>
+  </si>
+  <si>
+    <t>TELEX</t>
   </si>
   <si>
     <t>FAF</t>
   </si>
   <si>
-    <t>AMF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>thers</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%=i%&gt;</t>
+    <t>LOW SURFUR</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>AMENDMENT</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%=i+1%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.date%&gt;</t>
@@ -114,6 +116,9 @@
     <t>&lt;%=rs1.invoice_masterbi_receipt_no%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.invoice_masterbi_receipt_currency%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.invoice_masterbi_receipt_amount%&gt;</t>
   </si>
   <si>
@@ -138,10 +143,19 @@
     <t>&lt;%=rs1.invoice_masterbi_deposit%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.invoice_masterbi_lolf%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=rs1.invoice_masterbi_printing%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_masterbi_lolf%&gt;</t>
+    <t>&lt;%=rs1.invoice_masterbi_lcl%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_transfer%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_amendment%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.invoice_masterbi_others%&gt;</t>
@@ -153,11 +167,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -174,6 +188,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -191,10 +212,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,140 +340,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -351,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +603,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,35 +650,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,152 +679,152 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,24 +858,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -889,7 +903,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1269,14 +1286,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
@@ -1284,32 +1301,39 @@
     <col min="1" max="1" width="6.15384615384615" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.2596153846154" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5769230769231" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.41346153846154" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.15384615384615" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5769230769231" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.2596153846154" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.1538461538462" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.25961538461539" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.6826923076923" style="5" customWidth="1"/>
-    <col min="11" max="13" width="12.6826923076923" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8" style="6" customWidth="1"/>
-    <col min="15" max="15" width="15" style="7" customWidth="1"/>
-    <col min="16" max="19" width="11.1538461538462" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.1538461538462" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.4134615384615" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5769230769231" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.41346153846154" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.8365384615385" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5769230769231" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.15384615384615" style="1"/>
+    <col min="4" max="4" width="11.0096153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41346153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.15384615384615" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5769230769231" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.2596153846154" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.1538461538462" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.25961538461539" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.6826923076923" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.4230769230769" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.0288461538462" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.6826923076923" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15" style="7" customWidth="1"/>
+    <col min="17" max="17" width="20.0384615384615" style="5" customWidth="1"/>
+    <col min="18" max="18" width="17.4230769230769" style="5" customWidth="1"/>
+    <col min="19" max="20" width="11.1538461538462" style="5" customWidth="1"/>
+    <col min="21" max="21" width="27.6346153846154" style="5" customWidth="1"/>
+    <col min="22" max="26" width="11.1538461538462" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.1538461538462" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.4134615384615" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5769230769231" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.41346153846154" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.8365384615385" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5769230769231" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.15384615384615" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.15" customHeight="1" spans="7:7">
-      <c r="G1" s="15" t="s">
+    <row r="1" ht="22.15" customHeight="1" spans="8:8">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:23">
+    <row r="2" ht="28.5" customHeight="1" spans="1:30">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1319,16 +1343,16 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -1337,7 +1361,7 @@
       <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="20" t="s">
@@ -1349,13 +1373,13 @@
       <c r="M2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="23" t="s">
@@ -1367,64 +1391,100 @@
       <c r="S2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="U2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="27"/>
     </row>
-    <row r="3" customHeight="1" spans="1:23">
+    <row r="3" customHeight="1" spans="1:30">
       <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K3" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="S3" s="21"/>
-      <c r="T3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="27"/>
+      <c r="T3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T3"/>
+  <autoFilter ref="A2:AA3"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>
   <headerFooter/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -119,7 +119,7 @@
     <t>&lt;%=rs1.invoice_masterbi_receipt_currency%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_masterbi_receipt_amount%&gt;</t>
+    <t>&lt;%=rs1.sum_amount%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.bc%&gt;</t>
@@ -168,10 +168,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -206,14 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -221,22 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,32 +234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,8 +257,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -310,6 +295,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -317,6 +318,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -324,33 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,12 +365,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,37 +401,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,109 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,17 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,13 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,24 +645,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,94 +679,94 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,52 +775,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,7 +1293,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AB$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -44,6 +44,9 @@
     <t>B/C</t>
   </si>
   <si>
+    <t>Check</t>
+  </si>
+  <si>
     <t>Details</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.bc%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_check_no%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.user_name%&gt;</t>
@@ -166,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -206,7 +212,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,20 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,7 +302,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,105 +361,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,55 +371,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,25 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,55 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,37 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,8 +583,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,21 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,17 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,20 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,148 +685,148 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,7 +849,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -858,46 +864,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,14 +1292,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
@@ -1303,37 +1309,37 @@
     <col min="3" max="3" width="21.5769230769231" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.0096153846154" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.41346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.15384615384615" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5769230769231" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.2596153846154" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.1538461538462" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.25961538461539" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.6826923076923" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.4230769230769" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24.0288461538462" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.6826923076923" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15" style="7" customWidth="1"/>
-    <col min="17" max="17" width="20.0384615384615" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.4230769230769" style="5" customWidth="1"/>
-    <col min="19" max="20" width="11.1538461538462" style="5" customWidth="1"/>
-    <col min="21" max="21" width="27.6346153846154" style="5" customWidth="1"/>
-    <col min="22" max="26" width="11.1538461538462" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.1538461538462" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.4134615384615" style="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5769230769231" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.41346153846154" style="1" customWidth="1"/>
-    <col min="31" max="31" width="17.8365384615385" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5769230769231" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.15384615384615" style="1"/>
+    <col min="6" max="7" width="8.15384615384615" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5769230769231" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.2596153846154" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.1538461538462" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.25961538461539" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6826923076923" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19.4230769230769" style="5" customWidth="1"/>
+    <col min="14" max="14" width="24.0288461538462" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.6826923076923" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15" style="7" customWidth="1"/>
+    <col min="18" max="18" width="20.0384615384615" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.4230769230769" style="5" customWidth="1"/>
+    <col min="20" max="21" width="11.1538461538462" style="5" customWidth="1"/>
+    <col min="22" max="22" width="27.6346153846154" style="5" customWidth="1"/>
+    <col min="23" max="27" width="11.1538461538462" style="5" customWidth="1"/>
+    <col min="28" max="28" width="12.1538461538462" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.4134615384615" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5769230769231" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.41346153846154" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.8365384615385" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5769230769231" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.15384615384615" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.15" customHeight="1" spans="8:8">
-      <c r="H1" s="13" t="s">
+    <row r="1" ht="22.15" customHeight="1" spans="9:9">
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:30">
+    <row r="2" ht="28.5" customHeight="1" spans="1:31">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1346,16 +1352,16 @@
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1364,127 +1370,133 @@
       <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="27"/>
+      <c r="AB2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="27"/>
     </row>
-    <row r="3" customHeight="1" spans="1:30">
+    <row r="3" customHeight="1" spans="1:31">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="16" t="s">
         <v>37</v>
       </c>
+      <c r="K3" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="N3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="S3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="21"/>
       <c r="U3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="28"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA3"/>
+  <autoFilter ref="A2:AB3"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>
   <headerFooter/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AB$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AC$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
   </si>
   <si>
     <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%=i+1%&gt;</t>
@@ -172,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -219,23 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +243,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,8 +319,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -302,7 +336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,45 +344,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,31 +374,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,151 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +592,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,32 +646,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,18 +661,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,145 +688,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -849,7 +852,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -864,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,10 +900,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,14 +1295,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
@@ -1324,14 +1327,14 @@
     <col min="19" max="19" width="17.4230769230769" style="5" customWidth="1"/>
     <col min="20" max="21" width="11.1538461538462" style="5" customWidth="1"/>
     <col min="22" max="22" width="27.6346153846154" style="5" customWidth="1"/>
-    <col min="23" max="27" width="11.1538461538462" style="5" customWidth="1"/>
-    <col min="28" max="28" width="12.1538461538462" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.4134615384615" style="1" customWidth="1"/>
-    <col min="30" max="30" width="21.5769230769231" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.41346153846154" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.8365384615385" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5769230769231" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.15384615384615" style="1"/>
+    <col min="23" max="28" width="11.1538461538462" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.1538461538462" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.4134615384615" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5769230769231" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.41346153846154" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.8365384615385" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5769230769231" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.15384615384615" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.15" customHeight="1" spans="9:9">
@@ -1339,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:31">
+    <row r="2" ht="28.5" customHeight="1" spans="1:32">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1424,79 +1427,83 @@
       <c r="AB2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="27"/>
+      <c r="AC2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="27"/>
     </row>
-    <row r="3" customHeight="1" spans="1:31">
+    <row r="3" customHeight="1" spans="1:32">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="28"/>
+      <c r="AC3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB3"/>
+  <autoFilter ref="A2:AC3"/>
   <pageMargins left="0.354166666666667" right="0.354166666666667" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>
   <headerFooter/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_masterbi_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_vessel_name%&gt;</t>
   </si>
 </sst>
 </file>
@@ -177,10 +180,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -228,13 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -242,6 +238,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -249,24 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,32 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,52 +367,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +614,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -631,52 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,52 +691,118 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,91 +811,25 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1298,11 +1301,11 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15384615384615" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
@@ -1493,12 +1496,14 @@
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
+      <c r="AA3" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="AB3" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="28"/>
     </row>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11700"/>
   </bookViews>
@@ -16,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AD$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -180,19 +185,50 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_masterbi_bank_reference_no%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vessel Voyage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_vessel_voyage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +241,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -213,6 +250,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,6 +258,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,12 +266,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -380,12 +424,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="票据统计汇总表"/>
@@ -693,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -703,10 +750,10 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
@@ -740,12 +787,12 @@
     <col min="36" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.15" customHeight="1">
+    <row r="1" spans="1:33" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="28.5" customHeight="1">
+    <row r="2" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -836,9 +883,12 @@
       <c r="AD2" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="AE2" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="18" customHeight="1">
+    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -911,12 +961,13 @@
       <c r="AD3" s="16" t="s">
         <v>47</v>
       </c>
+      <c r="AE3" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="AG3" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD3">
-    <filterColumn colId="6"/>
-  </autoFilter>
+  <autoFilter ref="A2:AD3"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E2129-9909-5C4F-8C9C-443646392AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="票据统计汇总表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AD$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AE$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -211,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,17 +220,25 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>DO FEE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_do_fee%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,14 +324,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,10 +347,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -355,10 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,19 +386,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,9 +416,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
@@ -432,7 +439,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="票据统计汇总表"/>
@@ -497,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,9 +537,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,59 +781,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="24" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="8" style="6" customWidth="1"/>
     <col min="18" max="18" width="15" style="7" customWidth="1"/>
     <col min="19" max="19" width="20" style="5" customWidth="1"/>
-    <col min="20" max="20" width="17.375" style="5" customWidth="1"/>
-    <col min="21" max="22" width="11.125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="27.625" style="5" customWidth="1"/>
-    <col min="24" max="29" width="11.125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="18.375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.125" style="1"/>
+    <col min="20" max="20" width="17.33203125" style="5" customWidth="1"/>
+    <col min="21" max="22" width="11.1640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="27.6640625" style="5" customWidth="1"/>
+    <col min="24" max="30" width="11.1640625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J1" s="18" t="s">
+    <row r="1" spans="1:34" ht="22.25" customHeight="1">
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" ht="28.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -805,7 +846,7 @@
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -817,7 +858,7 @@
       <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -829,145 +870,151 @@
       <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AE2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AF2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="27"/>
+      <c r="AH2" s="25"/>
     </row>
-    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="21" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21" t="s">
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21" t="s">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="AF3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="28"/>
+      <c r="AH3" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD3"/>
+  <autoFilter ref="A2:AE3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait"/>

--- a/excelTemplate/collectTemplate.xlsx
+++ b/excelTemplate/collectTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E2129-9909-5C4F-8C9C-443646392AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33754F2F-A988-2940-86B0-E7BE0E9332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -228,15 +228,20 @@
     <t>&lt;%=rs1.invoice_masterbi_do_fee%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_cod_charge%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -331,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,9 +379,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -389,19 +391,10 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,8 +409,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -462,9 +461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -502,9 +501,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,26 +536,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,26 +571,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +753,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -829,7 +794,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.25" customHeight="1">
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -870,67 +835,67 @@
       <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="25"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -945,73 +910,75 @@
       <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="19" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AH3" s="26"/>
+      <c r="AH3" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AE3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
